--- a/Datos/Anuario2024/120601_LimpiezaMunicipal.xlsx
+++ b/Datos/Anuario2024/120601_LimpiezaMunicipal.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="37" r:id="rId1"/>
+    <sheet name="1" sheetId="38" r:id="rId2"/>
+    <sheet name="2" sheetId="39" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -55,78 +61,209 @@
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>Cerca (m)</t>
+  </si>
+  <si>
+    <t>Barrida 
+primaria (m)</t>
+  </si>
+  <si>
+    <t>Barrida de 
+repaso (m)</t>
+  </si>
+  <si>
+    <t>Barrida 
+mecánica (m)</t>
+  </si>
+  <si>
+    <t>Limpieza de jardines abiertos (m²)</t>
+  </si>
+  <si>
+    <r>
+      <t>Superficie limpiada (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Solares</t>
+  </si>
+  <si>
+    <r>
+      <t>Superficie (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Mercados</t>
+  </si>
+  <si>
+    <t>Playas</t>
+  </si>
+  <si>
+    <r>
+      <t>Volumen (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Número de calles</t>
+  </si>
+  <si>
+    <t>LIMPIEZA PÚBLICA</t>
+  </si>
+  <si>
+    <t>Lavado o aguateado (m)</t>
+  </si>
+  <si>
+    <t>1. Limpieza viaria. 2023</t>
+  </si>
+  <si>
+    <t>2. Limpieza de solares, playas y mercados. 2023</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -169,67 +306,67 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -299,12 +436,20 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2148,297 +2293,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja65">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="25.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>LIMPIEZA PÚBLICA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja66">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17.7109375" customWidth="1" style="1" min="1" max="6"/>
+    <col min="1" max="6" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
-        <is>
-          <t>1. Limpieza viaria. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="8" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="n"/>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
-    <row r="3" ht="33.75" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>Número de calles</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Barrida 
-primaria (m)</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Barrida de 
-repaso (m)</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>Barrida 
-mecánica (m)</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>Limpieza de jardines abiertos (m²)</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>Lavado o aguateado (m)</t>
-        </is>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="11" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>3223</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="11">
         <v>1135781</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="11">
         <v>110178</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="11">
         <v>1300355</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="11">
         <v>2050028</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="11">
         <v>1334866</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València.</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="91" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja67">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17.7109375" customWidth="1" min="1" max="7"/>
-    <col width="11.42578125" customWidth="1" style="3" min="8" max="16384"/>
+    <col min="1" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>2. Limpieza de solares, playas y mercados. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="18" t="inlineStr">
-        <is>
-          <t>Solares</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="n"/>
-      <c r="F3" s="17" t="inlineStr">
-        <is>
-          <t>Playas</t>
-        </is>
-      </c>
-      <c r="G3" s="16" t="inlineStr">
-        <is>
-          <t>Mercados</t>
-        </is>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>Cerca (m)</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Superficie (m2) </t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Superficie limpiada (m2) </t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
-        <is>
-          <t>Volumen (m3)</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Superficie limpiada (m2) </t>
-        </is>
-      </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="9" t="n">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>2052</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="14">
         <v>80.8</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="14">
         <v>1803715.49</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="14">
         <v>11290100.98</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>23970.84</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="9">
         <v>765000</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Gestión Sostenible de Residuos Urbanos y Limpieza del Espacio Público. Ayuntamiento de València.</t>
-        </is>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="G13" s="3" t="n"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:E3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="78" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>